--- a/开发计划.xlsx
+++ b/开发计划.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alphonso\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alphonso\Documents\GitHub\DevelopPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16365" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14430" windowHeight="8355" tabRatio="701" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="空压机解决方案" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
   <si>
     <t>截止时间：</t>
   </si>
@@ -72,18 +72,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2016/8/2-2016/8/15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>电路板开发</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2016/8/15-？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>子项目</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -100,35 +92,217 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.电路板设计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>刘</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>2.电路板调试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传感器调试与校准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流量计校准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端服务器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>？-2016/8/11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业网关硬件开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.电路板设计（7.25-8.1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.电路板调试（8.1-8.18）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端服务器开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达峰扫码系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简易版能效测试仪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电表+网关 2合一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电表+网关+流量计 3合一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>童</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>童</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">能效测试仪+网关 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中车调试？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘联络？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/7/25-2016/8/13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/26 前出一个版本 中车测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联网调试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新平台+新网关联网调试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/26 前出稳定版本 给中车</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业网关软件开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/26 前出一个版本 中车测试，（若新硬件无法完成，可先适配老的工业网关）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/8/2-2016/8/20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/8/15-2016/8/19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/8/19-2016/8/24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>李</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>王</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.电路板调试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>传感器调试与校准</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流量计校准</t>
+    <t>2016/8/8-2016/8/19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新版网关硬件开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/8/23-2016/8/26</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>App开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/8/1-2016/8/27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/8/21-2016/8/31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料管理APP（包括入库、出库、、配料、产线等功能）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.账号管理；
+2.账号工作情况统计；
+3.生成每日出库工作单；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.扫码，蓝牙打印DEMO（8.1-8.12）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.基本功能（8.12-8.27）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -136,139 +310,45 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端服务器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>？-2016/8/11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/8/8-2016/8/12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>web界面与web服务器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>web开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/22 前出一个版本 中车测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业网关硬件开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新版网关硬件开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.电路板设计（7.25-8.1）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.电路板调试（8.1-8.18）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端服务器开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>达峰扫码系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>App开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/8/1-2016/8/18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫码App</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.App扫码，蓝牙打印（8.1-8.12）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.连接数据库，显示物料信息（8.12-8.18）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>简易版能效测试仪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电表+网关 2合一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电表+网关+流量计 3合一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>童</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>童</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">能效测试仪+网关 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业网关软件开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/7/25-2016/8/15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/8/15-2016/8/22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新版网关软件开发（M26适配，数据协议修改）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8/22 前出一个版本 中车测试，（若新硬件无法完成，可先适配老的工业网关）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王</t>
+    <t>1.电路板设计（完成）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">新版网关软件开发
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>08.21-08.23:软件优化、485读取失败、测试</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">web界面与web服务器
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>08.21-08.23:数据库与界面联通</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -279,7 +359,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -333,6 +413,13 @@
       <b/>
       <sz val="9"/>
       <color indexed="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -454,7 +541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -480,7 +567,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -494,6 +580,27 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -505,33 +612,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -549,6 +630,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -920,10 +1010,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="G1" s="3" t="s">
@@ -943,8 +1033,8 @@
       <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="10">
-        <v>42593</v>
+      <c r="H2" s="9">
+        <v>42603</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -973,17 +1063,17 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>14</v>
+      <c r="F5" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>3</v>
@@ -996,77 +1086,79 @@
     <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="24"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="26"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="19"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="19"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="C9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1079,17 +1171,17 @@
       <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>14</v>
+      <c r="F11" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>3</v>
@@ -1100,13 +1192,13 @@
     </row>
     <row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
@@ -1117,17 +1209,17 @@
       <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>14</v>
+      <c r="F14" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>3</v>
@@ -1138,13 +1230,13 @@
     </row>
     <row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
@@ -1154,17 +1246,17 @@
       <c r="B17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="C17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>14</v>
+      <c r="F17" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>3</v>
@@ -1175,13 +1267,13 @@
     </row>
     <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
@@ -1193,17 +1285,17 @@
       <c r="B20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="C20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>14</v>
+      <c r="F20" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>3</v>
@@ -1214,13 +1306,13 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B21" s="13"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F22" s="4"/>
@@ -1254,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1274,10 +1366,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="G1" s="3" t="s">
@@ -1297,12 +1389,12 @@
       <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="10">
-        <v>42593</v>
+      <c r="H2" s="9">
+        <v>42603</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1312,7 +1404,7 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1327,17 +1419,17 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>14</v>
+      <c r="F5" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>3</v>
@@ -1348,119 +1440,148 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
-      <c r="B6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="26" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>33</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="24"/>
+      <c r="B8" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="24" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="12"/>
+      <c r="C11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F11" s="4"/>
+      <c r="G11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F12" s="4"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F13" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1473,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1493,10 +1614,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="G1" s="3" t="s">
@@ -1516,8 +1637,8 @@
       <c r="G2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="10">
-        <v>42593</v>
+      <c r="H2" s="9">
+        <v>42603</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -1546,17 +1667,17 @@
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>14</v>
+      <c r="F5" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>3</v>
@@ -1567,49 +1688,78 @@
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="24"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="22"/>
+      <c r="C6" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="F9" s="4"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="22"/>
+      <c r="C8" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="23"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="F10" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
